--- a/courses/microsoft-powerbi-professional-cert/excel-basics/sorting-and-filtering/Case Study - Filtering Data.xlsx
+++ b/courses/microsoft-powerbi-professional-cert/excel-basics/sorting-and-filtering/Case Study - Filtering Data.xlsx
@@ -3,16 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF5EE1D-2376-49F8-8554-3B1AB216DB35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B61F2C8D-E704-4E63-A646-393C738A9B77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{AEADFC2D-1F78-44C1-909F-B3FC6181F0CC}"/>
   </bookViews>
   <sheets>
     <sheet name="ProductsA" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="Products" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Products!$A$1:$I$151</definedName>
@@ -206,12 +207,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -269,7 +276,7 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -307,13 +314,34 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -5839,9 +5867,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20082FD7-ECB3-42E9-8674-73C04996FA80}">
   <dimension ref="A1:I151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5887,7 +5917,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="17" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="7">
@@ -5982,10 +6012,10 @@
         <f ca="1">TODAY()+17</f>
         <v>45668</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="4">
@@ -6012,7 +6042,7 @@
         <f ca="1">TODAY()+2</f>
         <v>45653</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -6042,7 +6072,7 @@
         <f ca="1">TODAY()+2</f>
         <v>45653</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="16" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -6071,7 +6101,7 @@
       <c r="B8" s="7">
         <v>44549</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="16" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -6189,7 +6219,7 @@
       <c r="B12" s="7">
         <v>44563</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="3" t="s">
@@ -6218,7 +6248,7 @@
       <c r="B13" s="7">
         <v>44563</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="16" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -6248,7 +6278,7 @@
         <f ca="1">TODAY()-3</f>
         <v>45648</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="17" t="s">
         <v>27</v>
       </c>
       <c r="D14" s="3" t="s">
@@ -6423,7 +6453,7 @@
       <c r="B20" s="7">
         <v>44593</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D20" s="3" t="s">
@@ -6452,7 +6482,7 @@
       <c r="B21" s="7">
         <v>44593</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="16" t="s">
         <v>30</v>
       </c>
       <c r="D21" s="3" t="s">
@@ -6481,7 +6511,7 @@
       <c r="B22" s="7">
         <v>44545</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="16" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3" t="s">
@@ -6570,7 +6600,7 @@
         <f ca="1">TODAY()+40</f>
         <v>45691</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="16" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="3" t="s">
@@ -6688,7 +6718,7 @@
         <f ca="1">TODAY()-45</f>
         <v>45606</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="17" t="s">
         <v>35</v>
       </c>
       <c r="D29" s="3" t="s">
@@ -6717,7 +6747,7 @@
       <c r="B30" s="7">
         <v>44399</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="17" t="s">
         <v>27</v>
       </c>
       <c r="D30" s="3" t="s">
@@ -6833,7 +6863,7 @@
       <c r="B34" s="7">
         <v>44535</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="16" t="s">
         <v>38</v>
       </c>
       <c r="D34" s="3" t="s">
@@ -6862,7 +6892,7 @@
       <c r="B35" s="7">
         <v>44535</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="16" t="s">
         <v>38</v>
       </c>
       <c r="D35" s="3" t="s">
@@ -6891,7 +6921,7 @@
       <c r="B36" s="7">
         <v>44579</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="16" t="s">
         <v>30</v>
       </c>
       <c r="D36" s="3" t="s">
@@ -7007,7 +7037,7 @@
       <c r="B40" s="7">
         <v>44479</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="17" t="s">
         <v>29</v>
       </c>
       <c r="D40" s="3" t="s">
@@ -7036,7 +7066,7 @@
       <c r="B41" s="7">
         <v>44479</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="17" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3" t="s">
@@ -7065,7 +7095,7 @@
       <c r="B42" s="7">
         <v>44574</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C42" s="16" t="s">
         <v>20</v>
       </c>
       <c r="D42" s="3" t="s">
@@ -7181,7 +7211,7 @@
       <c r="B46" s="7">
         <v>44592</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C46" s="16" t="s">
         <v>36</v>
       </c>
       <c r="D46" s="3" t="s">
@@ -7210,7 +7240,7 @@
       <c r="B47" s="7">
         <v>44592</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C47" s="16" t="s">
         <v>36</v>
       </c>
       <c r="D47" s="3" t="s">
@@ -7239,7 +7269,7 @@
       <c r="B48" s="7">
         <v>44580</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C48" s="16" t="s">
         <v>37</v>
       </c>
       <c r="D48" s="3" t="s">
@@ -7268,7 +7298,7 @@
       <c r="B49" s="7">
         <v>44580</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C49" s="16" t="s">
         <v>36</v>
       </c>
       <c r="D49" s="3" t="s">
@@ -7384,7 +7414,7 @@
       <c r="B53" s="7">
         <v>44586</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="C53" s="16" t="s">
         <v>10</v>
       </c>
       <c r="D53" s="3" t="s">
@@ -7413,7 +7443,7 @@
       <c r="B54" s="7">
         <v>44585</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="C54" s="16" t="s">
         <v>25</v>
       </c>
       <c r="D54" s="3" t="s">
@@ -7442,7 +7472,7 @@
       <c r="B55" s="7">
         <v>44585</v>
       </c>
-      <c r="C55" s="10" t="s">
+      <c r="C55" s="16" t="s">
         <v>38</v>
       </c>
       <c r="D55" s="3" t="s">
@@ -7502,7 +7532,7 @@
         <f ca="1">TODAY()-10</f>
         <v>45641</v>
       </c>
-      <c r="C57" s="10" t="s">
+      <c r="C57" s="16" t="s">
         <v>30</v>
       </c>
       <c r="D57" s="3" t="s">
@@ -7620,7 +7650,7 @@
       <c r="B61" s="7">
         <v>44558</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="C61" s="16" t="s">
         <v>13</v>
       </c>
       <c r="D61" s="3" t="s">
@@ -7649,7 +7679,7 @@
       <c r="B62" s="7">
         <v>44359</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="C62" s="16" t="s">
         <v>25</v>
       </c>
       <c r="D62" s="3" t="s">
@@ -7678,7 +7708,7 @@
       <c r="B63" s="7">
         <v>44359</v>
       </c>
-      <c r="C63" s="10" t="s">
+      <c r="C63" s="16" t="s">
         <v>38</v>
       </c>
       <c r="D63" s="3" t="s">
@@ -7766,7 +7796,7 @@
         <f ca="1">TODAY()+14</f>
         <v>45665</v>
       </c>
-      <c r="C66" s="10" t="s">
+      <c r="C66" s="16" t="s">
         <v>39</v>
       </c>
       <c r="D66" s="3" t="s">
@@ -7884,7 +7914,7 @@
         <f ca="1">TODAY()-32</f>
         <v>45619</v>
       </c>
-      <c r="C70" s="10" t="s">
+      <c r="C70" s="16" t="s">
         <v>16</v>
       </c>
       <c r="D70" s="3" t="s">
@@ -7914,7 +7944,7 @@
         <f ca="1">TODAY()-32</f>
         <v>45619</v>
       </c>
-      <c r="C71" s="10" t="s">
+      <c r="C71" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D71" s="3" t="s">
@@ -7972,7 +8002,7 @@
       <c r="B73" s="7">
         <v>44572</v>
       </c>
-      <c r="C73" s="10" t="s">
+      <c r="C73" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D73" s="3" t="s">
@@ -8059,7 +8089,7 @@
       <c r="B76" s="7">
         <v>44527</v>
       </c>
-      <c r="C76" s="10" t="s">
+      <c r="C76" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D76" s="3" t="s">
@@ -8068,16 +8098,16 @@
       <c r="E76" s="5">
         <v>30</v>
       </c>
-      <c r="F76" s="11">
+      <c r="F76" s="18">
         <v>150</v>
       </c>
-      <c r="G76" s="11">
-        <v>0</v>
-      </c>
-      <c r="H76" s="11">
+      <c r="G76" s="18">
+        <v>0</v>
+      </c>
+      <c r="H76" s="18">
         <v>10</v>
       </c>
-      <c r="I76" s="11" t="s">
+      <c r="I76" s="18" t="s">
         <v>15</v>
       </c>
     </row>
@@ -8088,7 +8118,7 @@
       <c r="B77" s="7">
         <v>44527</v>
       </c>
-      <c r="C77" s="10" t="s">
+      <c r="C77" s="16" t="s">
         <v>20</v>
       </c>
       <c r="D77" s="3" t="s">
@@ -8118,7 +8148,7 @@
         <f ca="1">TODAY()+7</f>
         <v>45658</v>
       </c>
-      <c r="C78" s="10" t="s">
+      <c r="C78" s="16" t="s">
         <v>30</v>
       </c>
       <c r="D78" s="3" t="s">
@@ -8148,7 +8178,7 @@
         <f ca="1">TODAY()+7</f>
         <v>45658</v>
       </c>
-      <c r="C79" s="10" t="s">
+      <c r="C79" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D79" s="3" t="s">
@@ -8178,7 +8208,7 @@
         <f ca="1">TODAY()+1</f>
         <v>45652</v>
       </c>
-      <c r="C80" s="10" t="s">
+      <c r="C80" s="16" t="s">
         <v>20</v>
       </c>
       <c r="D80" s="3" t="s">
@@ -8208,7 +8238,7 @@
         <f ca="1">TODAY()+1</f>
         <v>45652</v>
       </c>
-      <c r="C81" s="10" t="s">
+      <c r="C81" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D81" s="3" t="s">
@@ -8298,7 +8328,7 @@
         <f ca="1">TODAY()-9</f>
         <v>45642</v>
       </c>
-      <c r="C84" s="10" t="s">
+      <c r="C84" s="16" t="s">
         <v>13</v>
       </c>
       <c r="D84" s="3" t="s">
@@ -8328,7 +8358,7 @@
         <f ca="1">TODAY()-9</f>
         <v>45642</v>
       </c>
-      <c r="C85" s="10" t="s">
+      <c r="C85" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D85" s="3" t="s">
@@ -8357,7 +8387,7 @@
       <c r="B86" s="7">
         <v>44367</v>
       </c>
-      <c r="C86" s="10" t="s">
+      <c r="C86" s="16" t="s">
         <v>13</v>
       </c>
       <c r="D86" s="3" t="s">
@@ -8386,7 +8416,7 @@
       <c r="B87" s="7">
         <v>44367</v>
       </c>
-      <c r="C87" s="10" t="s">
+      <c r="C87" s="16" t="s">
         <v>10</v>
       </c>
       <c r="D87" s="3" t="s">
@@ -8415,7 +8445,7 @@
       <c r="B88" s="7">
         <v>44375</v>
       </c>
-      <c r="C88" s="10" t="s">
+      <c r="C88" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D88" s="3" t="s">
@@ -8444,7 +8474,7 @@
       <c r="B89" s="7">
         <v>44375</v>
       </c>
-      <c r="C89" s="10" t="s">
+      <c r="C89" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D89" s="3" t="s">
@@ -8473,7 +8503,7 @@
       <c r="B90" s="7">
         <v>44551</v>
       </c>
-      <c r="C90" s="10" t="s">
+      <c r="C90" s="16" t="s">
         <v>13</v>
       </c>
       <c r="D90" s="3" t="s">
@@ -8502,7 +8532,7 @@
       <c r="B91" s="7">
         <v>44551</v>
       </c>
-      <c r="C91" s="10" t="s">
+      <c r="C91" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D91" s="3" t="s">
@@ -8532,7 +8562,7 @@
         <f ca="1">TODAY()+2</f>
         <v>45653</v>
       </c>
-      <c r="C92" s="10" t="s">
+      <c r="C92" s="16" t="s">
         <v>38</v>
       </c>
       <c r="D92" s="3" t="s">
@@ -8562,7 +8592,7 @@
         <f ca="1">TODAY()+2</f>
         <v>45653</v>
       </c>
-      <c r="C93" s="10" t="s">
+      <c r="C93" s="16" t="s">
         <v>10</v>
       </c>
       <c r="D93" s="3" t="s">
@@ -8591,7 +8621,7 @@
       <c r="B94" s="7">
         <v>44566</v>
       </c>
-      <c r="C94" s="10" t="s">
+      <c r="C94" s="16" t="s">
         <v>30</v>
       </c>
       <c r="D94" s="3" t="s">
@@ -8620,7 +8650,7 @@
       <c r="B95" s="7">
         <v>44566</v>
       </c>
-      <c r="C95" s="10" t="s">
+      <c r="C95" s="16" t="s">
         <v>20</v>
       </c>
       <c r="D95" s="3" t="s">
@@ -10262,7 +10292,7 @@
       <c r="B151" s="7">
         <v>44543</v>
       </c>
-      <c r="C151" s="10" t="s">
+      <c r="C151" s="16" t="s">
         <v>25</v>
       </c>
       <c r="D151" s="3" t="s">
@@ -10274,44 +10304,38 @@
       <c r="F151" s="13">
         <v>490</v>
       </c>
-      <c r="G151" s="11">
-        <v>0</v>
-      </c>
-      <c r="H151" s="11">
+      <c r="G151" s="18">
+        <v>0</v>
+      </c>
+      <c r="H151" s="18">
         <v>30</v>
       </c>
-      <c r="I151" s="11" t="s">
+      <c r="I151" s="18" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="top10" dxfId="0" priority="1" percent="1" rank="10"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A59EE6DD-47EC-42B0-BC42-8D5558C365A3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="15179a99-4cef-4bac-ab20-a4c03d7ec5db" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2aed4346-8012-4133-9837-e496d0f5c99a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <Status xmlns="2aed4346-8012-4133-9837-e496d0f5c99a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006EAC3B332A2FD04E918F9FD72E2B30AC" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d6d948adb3d144107cfe4729b36cffcc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2aed4346-8012-4133-9837-e496d0f5c99a" xmlns:ns3="15179a99-4cef-4bac-ab20-a4c03d7ec5db" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9fbc5a941f941688c85ed9188582636e" ns2:_="" ns3:_="">
     <xsd:import namespace="2aed4346-8012-4133-9837-e496d0f5c99a"/>
@@ -10536,10 +10560,42 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="15179a99-4cef-4bac-ab20-a4c03d7ec5db" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2aed4346-8012-4133-9837-e496d0f5c99a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <Status xmlns="2aed4346-8012-4133-9837-e496d0f5c99a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{785F06B9-BE0F-409F-B020-9DC4B81C5F8E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FAD69B5-9809-4B08-8F91-9B86FDACC759}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2aed4346-8012-4133-9837-e496d0f5c99a"/>
+    <ds:schemaRef ds:uri="15179a99-4cef-4bac-ab20-a4c03d7ec5db"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -10556,20 +10612,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FAD69B5-9809-4B08-8F91-9B86FDACC759}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{785F06B9-BE0F-409F-B020-9DC4B81C5F8E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="2aed4346-8012-4133-9837-e496d0f5c99a"/>
-    <ds:schemaRef ds:uri="15179a99-4cef-4bac-ab20-a4c03d7ec5db"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>